--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -122,14 +122,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,24 +275,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -611,48 +592,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,123 +646,114 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,7 +1109,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1197,22 +1172,22 @@
       <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -1233,22 +1208,22 @@
       <c r="X2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1271,40 +1246,40 @@
       <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="G3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -1325,22 +1300,22 @@
       <c r="X3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="Y3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1349,7 +1324,7 @@
         <v>1001</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>18</v>
@@ -1441,7 +1416,7 @@
         <v>1002</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -1533,7 +1508,7 @@
         <v>1003</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1717,7 +1692,7 @@
         <v>1005</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1809,7 +1784,7 @@
         <v>1006</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>23</v>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="21040" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="MarryCondition" sheetId="1" r:id="rId1"/>
@@ -1104,12 +1104,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1416,7 +1416,7 @@
         <v>1002</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -1508,7 +1508,7 @@
         <v>1003</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1600,7 +1600,7 @@
         <v>1004</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -1692,7 +1692,7 @@
         <v>1005</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1737,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>1006</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -1829,10 +1829,10 @@
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1868,6 +1868,190 @@
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <v>1007</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>15</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11">
+        <v>1008</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>15</v>
+      </c>
+      <c r="AA11">
+        <v>15</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21040" windowHeight="10650"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="MarryCondition" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>//dontCare</t>
   </si>
@@ -55,6 +55,9 @@
     <t>wEduM5</t>
   </si>
   <si>
+    <t>expectEduM</t>
+  </si>
+  <si>
     <t>wEduF0</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>wEduF5</t>
   </si>
   <si>
+    <t>expectEduF</t>
+  </si>
+  <si>
     <t>wCareerM0</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>wCareerM5</t>
   </si>
   <si>
+    <t>expectCareerM</t>
+  </si>
+  <si>
     <t>wCareerF0</t>
   </si>
   <si>
@@ -109,7 +118,13 @@
     <t>wCareerF5</t>
   </si>
   <si>
+    <t>expectCareerF</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -275,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,16 +628,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,10 +649,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,28 +673,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -682,19 +703,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,38 +724,41 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,6 +772,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1104,12 +1128,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="topRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1123,11 +1147,17 @@
     <col min="7" max="7" width="6.45454545454545" customWidth="1"/>
     <col min="8" max="8" width="6.63636363636364" customWidth="1"/>
     <col min="9" max="11" width="6.90909090909091" customWidth="1"/>
-    <col min="12" max="13" width="6.45454545454545" customWidth="1"/>
-    <col min="14" max="14" width="6.63636363636364" customWidth="1"/>
-    <col min="15" max="17" width="6.90909090909091" customWidth="1"/>
-    <col min="18" max="18" width="6.45454545454545" customWidth="1"/>
-    <col min="19" max="30" width="9.54545454545454" customWidth="1"/>
+    <col min="12" max="12" width="6.45454545454545" customWidth="1"/>
+    <col min="13" max="13" width="12.2" customWidth="1"/>
+    <col min="14" max="14" width="6.45454545454545" customWidth="1"/>
+    <col min="15" max="15" width="6.63636363636364" customWidth="1"/>
+    <col min="16" max="18" width="6.90909090909091" customWidth="1"/>
+    <col min="19" max="19" width="6.45454545454545" customWidth="1"/>
+    <col min="20" max="20" width="12.2" customWidth="1"/>
+    <col min="21" max="26" width="9.54545454545454" customWidth="1"/>
+    <col min="27" max="27" width="15.0545454545455" customWidth="1"/>
+    <col min="28" max="33" width="9.54545454545454" customWidth="1"/>
+    <col min="34" max="34" width="15.0545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1135,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1175,25 +1205,25 @@
       <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="U2" s="4" t="s">
@@ -1208,118 +1238,142 @@
       <c r="X2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="AE2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1336,13 +1390,13 @@
         <v>18</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1357,10 +1411,11 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <f>(G4*0+H4*1+I4*2+J4*3+K4*4+L4*5)/(G4+H4+I4+J4+K4+L4)</f>
+        <v>0.333333333333333</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1375,13 +1430,14 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4">
+        <f t="shared" ref="T4:T11" si="0">(N4*0+O4*1+P4*2+Q4*3+R4*4+S4*5)/(N4+O4+P4+Q4+R4+S4)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1393,16 +1449,17 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
+        <f t="shared" ref="AA4:AA11" si="1">(U4*0+V4*1+W4*2+X4*3+Y4*4+Z4*5)/(U4+V4+W4+X4+Y4+Z4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1410,53 +1467,67 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH11" si="2">(AB4*0+AC4*1+AD4*2+AE4*3+AF4*4+AG4*5)/(AB4+AC4+AD4+AE4+AF4+AG4)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M11" si="3">(G5*0+H5*1+I5*2+J5*3+K5*4+L5*5)/(G5+H5+I5+J5+K5+L5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <v>15</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>15</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
         <v>0</v>
       </c>
@@ -1467,16 +1538,17 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1485,42 +1557,56 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.166666666666667</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="2"/>
+        <v>0.166666666666667</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>18</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -1529,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1541,10 +1627,11 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>0.8</v>
       </c>
       <c r="N6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O6">
         <v>10</v>
@@ -1559,16 +1646,17 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1577,54 +1665,68 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.333333333333333</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="2"/>
+        <v>0.285714285714286</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>18</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1633,16 +1735,17 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1651,16 +1754,17 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1669,25 +1773,39 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD7">
         <v>0</v>
       </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1695,114 +1813,130 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
       <c r="F8">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="N8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>10</v>
+      </c>
+      <c r="W8">
         <v>5</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>10</v>
-      </c>
-      <c r="T8">
-        <v>10</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8">
-        <v>10</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="2"/>
+        <v>0.444444444444444</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>18</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G9">
         <v>10</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1811,40 +1945,42 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>1.44444444444444</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P9">
         <v>10</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0.875</v>
       </c>
       <c r="U9">
         <v>10</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W9">
         <v>10</v>
@@ -1853,48 +1989,62 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD9">
         <v>0</v>
       </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>15</v>
@@ -1903,40 +2053,42 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1.66666666666667</v>
       </c>
       <c r="N10">
         <v>15</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>10</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W10">
         <v>10</v>
@@ -1945,114 +2097,900 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="AB10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="2"/>
+        <v>0.636363636363636</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>18</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>15</v>
       </c>
       <c r="J11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1.9</v>
       </c>
       <c r="N11">
         <v>15</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q11">
         <v>5</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>1.44444444444444</v>
+      </c>
+      <c r="AB11">
+        <v>15</v>
+      </c>
+      <c r="AC11">
+        <v>15</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12">
+        <v>1009</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="S11">
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11">
-        <v>15</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <v>10</v>
-      </c>
-      <c r="X11">
-        <v>10</v>
-      </c>
-      <c r="Y11">
+      <c r="M12">
+        <f>(G12*0+H12*1+I12*2+J12*3+K12*4+L12*5)/(G12+H12+I12+J12+K12+L12)</f>
+        <v>2.35714285714286</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>15</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>(N12*0+O12*1+P12*2+Q12*3+R12*4+S12*5)/(N12+O12+P12+Q12+R12+S12)</f>
+        <v>1.36363636363636</v>
+      </c>
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="Z11">
-        <v>15</v>
-      </c>
-      <c r="AA11">
-        <v>15</v>
-      </c>
-      <c r="AB11">
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>15</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>(U12*0+V12*1+W12*2+X12*3+Y12*4+Z12*5)/(U12+V12+W12+X12+Y12+Z12)</f>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="AB12">
+        <v>15</v>
+      </c>
+      <c r="AC12">
+        <v>15</v>
+      </c>
+      <c r="AD12">
+        <v>9</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f>(AB12*0+AC12*1+AD12*2+AE12*3+AF12*4+AG12*5)/(AB12+AC12+AD12+AE12+AF12+AG12)</f>
+        <v>0.846153846153846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13">
+        <v>1010</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
+      <c r="M13">
+        <f>(G13*0+H13*1+I13*2+J13*3+K13*4+L13*5)/(G13+H13+I13+J13+K13+L13)</f>
+        <v>2.42647058823529</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>(N13*0+O13*1+P13*2+Q13*3+R13*4+S13*5)/(N13+O13+P13+Q13+R13+S13)</f>
+        <v>1.5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>15</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>(U13*0+V13*1+W13*2+X13*3+Y13*4+Z13*5)/(U13+V13+W13+X13+Y13+Z13)</f>
+        <v>1.9</v>
+      </c>
+      <c r="AB13">
+        <v>15</v>
+      </c>
+      <c r="AC13">
+        <v>15</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f>(AB13*0+AC13*1+AD13*2+AE13*3+AF13*4+AG13*5)/(AB13+AC13+AD13+AE13+AF13+AG13)</f>
+        <v>0.928571428571429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14">
+        <v>1011</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <f>(G14*0+H14*1+I14*2+J14*3+K14*4+L14*5)/(G14+H14+I14+J14+K14+L14)</f>
+        <v>2.53968253968254</v>
+      </c>
+      <c r="N14">
+        <v>15</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>(N14*0+O14*1+P14*2+Q14*3+R14*4+S14*5)/(N14+O14+P14+Q14+R14+S14)</f>
+        <v>1.64285714285714</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>15</v>
+      </c>
+      <c r="W14">
+        <v>20</v>
+      </c>
+      <c r="X14">
+        <v>15</v>
+      </c>
+      <c r="Y14">
+        <v>10</v>
+      </c>
+      <c r="Z14">
+        <v>5</v>
+      </c>
+      <c r="AA14">
+        <f>(U14*0+V14*1+W14*2+X14*3+Y14*4+Z14*5)/(U14+V14+W14+X14+Y14+Z14)</f>
+        <v>2.35714285714286</v>
+      </c>
+      <c r="AB14">
+        <v>15</v>
+      </c>
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <v>15</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f>(AB14*0+AC14*1+AD14*2+AE14*3+AF14*4+AG14*5)/(AB14+AC14+AD14+AE14+AF14+AG14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15">
+        <v>1012</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f>(G15*0+H15*1+I15*2+J15*3+K15*4+L15*5)/(G15+H15+I15+J15+K15+L15)</f>
+        <v>2.67123287671233</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>20</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>(N15*0+O15*1+P15*2+Q15*3+R15*4+S15*5)/(N15+O15+P15+Q15+R15+S15)</f>
+        <v>1.75</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>15</v>
+      </c>
+      <c r="W15">
+        <v>20</v>
+      </c>
+      <c r="X15">
+        <v>15</v>
+      </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <f>(U15*0+V15*1+W15*2+X15*3+Y15*4+Z15*5)/(U15+V15+W15+X15+Y15+Z15)</f>
+        <v>2.42647058823529</v>
+      </c>
+      <c r="AB15">
+        <v>15</v>
+      </c>
+      <c r="AC15">
+        <v>15</v>
+      </c>
+      <c r="AD15">
+        <v>15</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f>(AB15*0+AC15*1+AD15*2+AE15*3+AF15*4+AG15*5)/(AB15+AC15+AD15+AE15+AF15+AG15)</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16">
+        <v>1013</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <f>(G16*0+H16*1+I16*2+J16*3+K16*4+L16*5)/(G16+H16+I16+J16+K16+L16)</f>
+        <v>2.7710843373494</v>
+      </c>
+      <c r="N16">
+        <v>15</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>20</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>(N16*0+O16*1+P16*2+Q16*3+R16*4+S16*5)/(N16+O16+P16+Q16+R16+S16)</f>
+        <v>1.88235294117647</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <v>15</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>5</v>
+      </c>
+      <c r="AA16">
+        <f>(U16*0+V16*1+W16*2+X16*3+Y16*4+Z16*5)/(U16+V16+W16+X16+Y16+Z16)</f>
+        <v>2.53968253968254</v>
+      </c>
+      <c r="AB16">
+        <v>15</v>
+      </c>
+      <c r="AC16">
+        <v>15</v>
+      </c>
+      <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AE16">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f>(AB16*0+AC16*1+AD16*2+AE16*3+AF16*4+AG16*5)/(AB16+AC16+AD16+AE16+AF16+AG16)</f>
+        <v>1.23529411764706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17">
+        <v>1014</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <f>(G17*0+H17*1+I17*2+J17*3+K17*4+L17*5)/(G17+H17+I17+J17+K17+L17)</f>
+        <v>2.89156626506024</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>25</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>(N17*0+O17*1+P17*2+Q17*3+R17*4+S17*5)/(N17+O17+P17+Q17+R17+S17)</f>
+        <v>1.94444444444444</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>25</v>
+      </c>
+      <c r="X17">
+        <v>15</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17">
+        <f>(U17*0+V17*1+W17*2+X17*3+Y17*4+Z17*5)/(U17+V17+W17+X17+Y17+Z17)</f>
+        <v>2.67123287671233</v>
+      </c>
+      <c r="AB17">
+        <v>15</v>
+      </c>
+      <c r="AC17">
+        <v>15</v>
+      </c>
+      <c r="AD17">
+        <v>15</v>
+      </c>
+      <c r="AE17">
+        <v>9</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f>(AB17*0+AC17*1+AD17*2+AE17*3+AF17*4+AG17*5)/(AB17+AC17+AD17+AE17+AF17+AG17)</f>
+        <v>1.33333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18">
+        <v>1015</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f>(G18*0+H18*1+I18*2+J18*3+K18*4+L18*5)/(G18+H18+I18+J18+K18+L18)</f>
+        <v>2.94871794871795</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>(N18*0+O18*1+P18*2+Q18*3+R18*4+S18*5)/(N18+O18+P18+Q18+R18+S18)</f>
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>25</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+      <c r="Y18">
+        <v>15</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <f>(U18*0+V18*1+W18*2+X18*3+Y18*4+Z18*5)/(U18+V18+W18+X18+Y18+Z18)</f>
+        <v>2.7710843373494</v>
+      </c>
+      <c r="AB18">
+        <v>15</v>
+      </c>
+      <c r="AC18">
+        <v>15</v>
+      </c>
+      <c r="AD18">
+        <v>15</v>
+      </c>
+      <c r="AE18">
+        <v>12</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f>(AB18*0+AC18*1+AD18*2+AE18*3+AF18*4+AG18*5)/(AB18+AC18+AD18+AE18+AF18+AG18)</f>
+        <v>1.42105263157895</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="17400" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="MarryCondition" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="R21" sqref="R21"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T11" si="0">(N4*0+O4*1+P4*2+Q4*3+R4*4+S4*5)/(N4+O4+P4+Q4+R4+S4)</f>
+        <f t="shared" ref="T4:T18" si="0">(N4*0+O4*1+P4*2+Q4*3+R4*4+S4*5)/(N4+O4+P4+Q4+R4+S4)</f>
         <v>0</v>
       </c>
       <c r="U4">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA11" si="1">(U4*0+V4*1+W4*2+X4*3+Y4*4+Z4*5)/(U4+V4+W4+X4+Y4+Z4)</f>
+        <f t="shared" ref="AA4:AA18" si="1">(U4*0+V4*1+W4*2+X4*3+Y4*4+Z4*5)/(U4+V4+W4+X4+Y4+Z4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH11" si="2">(AB4*0+AC4*1+AD4*2+AE4*3+AF4*4+AG4*5)/(AB4+AC4+AD4+AE4+AF4+AG4)</f>
+        <f t="shared" ref="AH4:AH18" si="2">(AB4*0+AC4*1+AD4*2+AE4*3+AF4*4+AG4*5)/(AB4+AC4+AD4+AE4+AF4+AG4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>1002</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>18</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M11" si="3">(G5*0+H5*1+I5*2+J5*3+K5*4+L5*5)/(G5+H5+I5+J5+K5+L5)</f>
+        <f t="shared" ref="M5:M18" si="3">(G5*0+H5*1+I5*2+J5*3+K5*4+L5*5)/(G5+H5+I5+J5+K5+L5)</f>
         <v>0.5</v>
       </c>
       <c r="N5">
@@ -1594,7 +1594,7 @@
         <v>1003</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -1702,7 +1702,7 @@
         <v>1004</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -1810,7 +1810,7 @@
         <v>1005</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1918,7 +1918,7 @@
         <v>1006</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -2026,7 +2026,7 @@
         <v>1007</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -2134,7 +2134,7 @@
         <v>1008</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -2242,7 +2242,7 @@
         <v>1009</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -2275,7 +2275,7 @@
         <v>5</v>
       </c>
       <c r="M12">
-        <f>(G12*0+H12*1+I12*2+J12*3+K12*4+L12*5)/(G12+H12+I12+J12+K12+L12)</f>
+        <f t="shared" si="3"/>
         <v>2.35714285714286</v>
       </c>
       <c r="N12">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <f>(N12*0+O12*1+P12*2+Q12*3+R12*4+S12*5)/(N12+O12+P12+Q12+R12+S12)</f>
+        <f t="shared" si="0"/>
         <v>1.36363636363636</v>
       </c>
       <c r="U12">
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <f>(U12*0+V12*1+W12*2+X12*3+Y12*4+Z12*5)/(U12+V12+W12+X12+Y12+Z12)</f>
+        <f t="shared" si="1"/>
         <v>1.66666666666667</v>
       </c>
       <c r="AB12">
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>(AB12*0+AC12*1+AD12*2+AE12*3+AF12*4+AG12*5)/(AB12+AC12+AD12+AE12+AF12+AG12)</f>
+        <f t="shared" si="2"/>
         <v>0.846153846153846</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
         <v>1010</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="M13">
-        <f>(G13*0+H13*1+I13*2+J13*3+K13*4+L13*5)/(G13+H13+I13+J13+K13+L13)</f>
+        <f t="shared" si="3"/>
         <v>2.42647058823529</v>
       </c>
       <c r="N13">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <f>(N13*0+O13*1+P13*2+Q13*3+R13*4+S13*5)/(N13+O13+P13+Q13+R13+S13)</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="U13">
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <f>(U13*0+V13*1+W13*2+X13*3+Y13*4+Z13*5)/(U13+V13+W13+X13+Y13+Z13)</f>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="AB13">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <f>(AB13*0+AC13*1+AD13*2+AE13*3+AF13*4+AG13*5)/(AB13+AC13+AD13+AE13+AF13+AG13)</f>
+        <f t="shared" si="2"/>
         <v>0.928571428571429</v>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
         <v>1011</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -2491,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="M14">
-        <f>(G14*0+H14*1+I14*2+J14*3+K14*4+L14*5)/(G14+H14+I14+J14+K14+L14)</f>
+        <f t="shared" si="3"/>
         <v>2.53968253968254</v>
       </c>
       <c r="N14">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <f>(N14*0+O14*1+P14*2+Q14*3+R14*4+S14*5)/(N14+O14+P14+Q14+R14+S14)</f>
+        <f t="shared" si="0"/>
         <v>1.64285714285714</v>
       </c>
       <c r="U14">
@@ -2535,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="AA14">
-        <f>(U14*0+V14*1+W14*2+X14*3+Y14*4+Z14*5)/(U14+V14+W14+X14+Y14+Z14)</f>
+        <f t="shared" si="1"/>
         <v>2.35714285714286</v>
       </c>
       <c r="AB14">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <f>(AB14*0+AC14*1+AD14*2+AE14*3+AF14*4+AG14*5)/(AB14+AC14+AD14+AE14+AF14+AG14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
         <v>1012</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -2581,13 +2581,13 @@
         <v>32</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J15">
         <v>15</v>
@@ -2599,8 +2599,8 @@
         <v>10</v>
       </c>
       <c r="M15">
-        <f>(G15*0+H15*1+I15*2+J15*3+K15*4+L15*5)/(G15+H15+I15+J15+K15+L15)</f>
-        <v>2.67123287671233</v>
+        <f t="shared" si="3"/>
+        <v>2.76119402985075</v>
       </c>
       <c r="N15">
         <v>15</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <f>(N15*0+O15*1+P15*2+Q15*3+R15*4+S15*5)/(N15+O15+P15+Q15+R15+S15)</f>
+        <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
       <c r="U15">
@@ -2643,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AA15">
-        <f>(U15*0+V15*1+W15*2+X15*3+Y15*4+Z15*5)/(U15+V15+W15+X15+Y15+Z15)</f>
+        <f t="shared" si="1"/>
         <v>2.42647058823529</v>
       </c>
       <c r="AB15">
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <f>(AB15*0+AC15*1+AD15*2+AE15*3+AF15*4+AG15*5)/(AB15+AC15+AD15+AE15+AF15+AG15)</f>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>1013</v>
       </c>
       <c r="B16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -2689,13 +2689,13 @@
         <v>32</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>20</v>
@@ -2707,8 +2707,8 @@
         <v>10</v>
       </c>
       <c r="M16">
-        <f>(G16*0+H16*1+I16*2+J16*3+K16*4+L16*5)/(G16+H16+I16+J16+K16+L16)</f>
-        <v>2.7710843373494</v>
+        <f t="shared" si="3"/>
+        <v>2.85714285714286</v>
       </c>
       <c r="N16">
         <v>15</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <f>(N16*0+O16*1+P16*2+Q16*3+R16*4+S16*5)/(N16+O16+P16+Q16+R16+S16)</f>
+        <f t="shared" si="0"/>
         <v>1.88235294117647</v>
       </c>
       <c r="U16">
@@ -2751,7 +2751,7 @@
         <v>5</v>
       </c>
       <c r="AA16">
-        <f>(U16*0+V16*1+W16*2+X16*3+Y16*4+Z16*5)/(U16+V16+W16+X16+Y16+Z16)</f>
+        <f t="shared" si="1"/>
         <v>2.53968253968254</v>
       </c>
       <c r="AB16">
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <f>(AB16*0+AC16*1+AD16*2+AE16*3+AF16*4+AG16*5)/(AB16+AC16+AD16+AE16+AF16+AG16)</f>
+        <f t="shared" si="2"/>
         <v>1.23529411764706</v>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
         <v>1014</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -2797,26 +2797,26 @@
         <v>31</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J17">
         <v>25</v>
       </c>
       <c r="K17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <f>(G17*0+H17*1+I17*2+J17*3+K17*4+L17*5)/(G17+H17+I17+J17+K17+L17)</f>
-        <v>2.89156626506024</v>
+        <f t="shared" si="3"/>
+        <v>3.19767441860465</v>
       </c>
       <c r="N17">
         <v>15</v>
@@ -2837,17 +2837,17 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <f>(N17*0+O17*1+P17*2+Q17*3+R17*4+S17*5)/(N17+O17+P17+Q17+R17+S17)</f>
+        <f t="shared" si="0"/>
         <v>1.94444444444444</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
         <v>10</v>
       </c>
       <c r="W17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X17">
         <v>15</v>
@@ -2859,8 +2859,8 @@
         <v>10</v>
       </c>
       <c r="AA17">
-        <f>(U17*0+V17*1+W17*2+X17*3+Y17*4+Z17*5)/(U17+V17+W17+X17+Y17+Z17)</f>
-        <v>2.67123287671233</v>
+        <f t="shared" si="1"/>
+        <v>2.76119402985075</v>
       </c>
       <c r="AB17">
         <v>15</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <f>(AB17*0+AC17*1+AD17*2+AE17*3+AF17*4+AG17*5)/(AB17+AC17+AD17+AE17+AF17+AG17)</f>
+        <f t="shared" si="2"/>
         <v>1.33333333333333</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>1015</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -2905,7 +2905,7 @@
         <v>31</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2917,14 +2917,14 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <f>(G18*0+H18*1+I18*2+J18*3+K18*4+L18*5)/(G18+H18+I18+J18+K18+L18)</f>
-        <v>2.94871794871795</v>
+        <f t="shared" si="3"/>
+        <v>3.2967032967033</v>
       </c>
       <c r="N18">
         <v>15</v>
@@ -2945,17 +2945,17 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <f>(N18*0+O18*1+P18*2+Q18*3+R18*4+S18*5)/(N18+O18+P18+Q18+R18+S18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18">
         <v>10</v>
       </c>
       <c r="W18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X18">
         <v>20</v>
@@ -2967,8 +2967,8 @@
         <v>10</v>
       </c>
       <c r="AA18">
-        <f>(U18*0+V18*1+W18*2+X18*3+Y18*4+Z18*5)/(U18+V18+W18+X18+Y18+Z18)</f>
-        <v>2.7710843373494</v>
+        <f t="shared" si="1"/>
+        <v>2.85714285714286</v>
       </c>
       <c r="AB18">
         <v>15</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <f>(AB18*0+AC18*1+AD18*2+AE18*3+AF18*4+AG18*5)/(AB18+AC18+AD18+AE18+AF18+AG18)</f>
+        <f t="shared" si="2"/>
         <v>1.42105263157895</v>
       </c>
     </row>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="8330"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="MarryCondition" sheetId="1" r:id="rId1"/>
@@ -1128,12 +1128,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+      <selection pane="topRight" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA18" si="1">(U4*0+V4*1+W4*2+X4*3+Y4*4+Z4*5)/(U4+V4+W4+X4+Y4+Z4)</f>
+        <f t="shared" ref="AA4:AA23" si="1">(U4*0+V4*1+W4*2+X4*3+Y4*4+Z4*5)/(U4+V4+W4+X4+Y4+Z4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH18" si="2">(AB4*0+AC4*1+AD4*2+AE4*3+AF4*4+AG4*5)/(AB4+AC4+AD4+AE4+AF4+AG4)</f>
+        <f t="shared" ref="AH4:AH23" si="2">(AB4*0+AC4*1+AD4*2+AE4*3+AF4*4+AG4*5)/(AB4+AC4+AD4+AE4+AF4+AG4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M18" si="3">(G5*0+H5*1+I5*2+J5*3+K5*4+L5*5)/(G5+H5+I5+J5+K5+L5)</f>
+        <f t="shared" ref="M5:M23" si="3">(G5*0+H5*1+I5*2+J5*3+K5*4+L5*5)/(G5+H5+I5+J5+K5+L5)</f>
         <v>0.5</v>
       </c>
       <c r="N5">
@@ -1702,7 +1702,7 @@
         <v>1004</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -1810,7 +1810,7 @@
         <v>1005</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1918,7 +1918,7 @@
         <v>1006</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -2026,7 +2026,7 @@
         <v>1007</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -2134,7 +2134,7 @@
         <v>1008</v>
       </c>
       <c r="B11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>21</v>
@@ -2242,7 +2242,7 @@
         <v>1009</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -2350,7 +2350,7 @@
         <v>1010</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -2458,7 +2458,7 @@
         <v>1011</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>23</v>
@@ -2566,7 +2566,7 @@
         <v>1012</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -2674,7 +2674,7 @@
         <v>1013</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>24</v>
@@ -2782,7 +2782,7 @@
         <v>1014</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>24</v>
@@ -2890,7 +2890,7 @@
         <v>1015</v>
       </c>
       <c r="B18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -2991,6 +2991,546 @@
       <c r="AH18">
         <f t="shared" si="2"/>
         <v>1.42105263157895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19">
+        <v>1016</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>3.46067415730337</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+      <c r="Q19">
+        <v>30</v>
+      </c>
+      <c r="R19">
+        <v>15</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T23" si="4">(N19*0+O19*1+P19*2+Q19*3+R19*4+S19*5)/(N19+O19+P19+Q19+R19+S19)</f>
+        <v>2.1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <v>25</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>3.19767441860465</v>
+      </c>
+      <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19">
+        <v>15</v>
+      </c>
+      <c r="AD19">
+        <v>15</v>
+      </c>
+      <c r="AE19">
+        <v>15</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20">
+        <v>1017</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>30</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>3.54255319148936</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>35</v>
+      </c>
+      <c r="R20">
+        <v>15</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>2.14285714285714</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <v>25</v>
+      </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>3.2967032967033</v>
+      </c>
+      <c r="AB20">
+        <v>15</v>
+      </c>
+      <c r="AC20">
+        <v>15</v>
+      </c>
+      <c r="AD20">
+        <v>20</v>
+      </c>
+      <c r="AE20">
+        <v>15</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="2"/>
+        <v>1.53846153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21">
+        <v>1018</v>
+      </c>
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>3.62921348314607</v>
+      </c>
+      <c r="N21">
+        <v>15</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <v>35</v>
+      </c>
+      <c r="R21">
+        <v>20</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="4"/>
+        <v>2.22727272727273</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>15</v>
+      </c>
+      <c r="X21">
+        <v>25</v>
+      </c>
+      <c r="Y21">
+        <v>25</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>3.46067415730337</v>
+      </c>
+      <c r="AB21">
+        <v>15</v>
+      </c>
+      <c r="AC21">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <v>25</v>
+      </c>
+      <c r="AE21">
+        <v>15</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="2"/>
+        <v>1.63888888888889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22">
+        <v>1019</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>29</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>40</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>3.73529411764706</v>
+      </c>
+      <c r="N22">
+        <v>15</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>45</v>
+      </c>
+      <c r="R22">
+        <v>22</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="4"/>
+        <v>2.31967213114754</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <v>25</v>
+      </c>
+      <c r="Y22">
+        <v>25</v>
+      </c>
+      <c r="Z22">
+        <v>25</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>3.54255319148936</v>
+      </c>
+      <c r="AB22">
+        <v>15</v>
+      </c>
+      <c r="AC22">
+        <v>15</v>
+      </c>
+      <c r="AD22">
+        <v>35</v>
+      </c>
+      <c r="AE22">
+        <v>15</v>
+      </c>
+      <c r="AF22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="2"/>
+        <v>1.73809523809524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23">
+        <v>1020</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>3.82474226804124</v>
+      </c>
+      <c r="N23">
+        <v>15</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>55</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="4"/>
+        <v>2.40740740740741</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>25</v>
+      </c>
+      <c r="Y23">
+        <v>25</v>
+      </c>
+      <c r="Z23">
+        <v>25</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>3.62921348314607</v>
+      </c>
+      <c r="AB23">
+        <v>15</v>
+      </c>
+      <c r="AC23">
+        <v>15</v>
+      </c>
+      <c r="AD23">
+        <v>45</v>
+      </c>
+      <c r="AE23">
+        <v>20</v>
+      </c>
+      <c r="AF23">
+        <v>5</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="2"/>
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -1133,7 +1133,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AE23" sqref="AE23"/>
+      <selection pane="topRight" activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3066,17 +3066,17 @@
         <v>20</v>
       </c>
       <c r="X19">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y19">
         <v>20</v>
       </c>
       <c r="Z19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA19">
         <f t="shared" si="1"/>
-        <v>3.19767441860465</v>
+        <v>3.08139534883721</v>
       </c>
       <c r="AB19">
         <v>15</v>
@@ -3168,23 +3168,23 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X20">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y20">
         <v>20</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA20">
         <f t="shared" si="1"/>
-        <v>3.2967032967033</v>
+        <v>3.13253012048193</v>
       </c>
       <c r="AB20">
         <v>15</v>
@@ -3279,20 +3279,20 @@
         <v>3</v>
       </c>
       <c r="W21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X21">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA21">
         <f t="shared" si="1"/>
-        <v>3.46067415730337</v>
+        <v>3.1875</v>
       </c>
       <c r="AB21">
         <v>15</v>
@@ -3384,23 +3384,23 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z22">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA22">
         <f t="shared" si="1"/>
-        <v>3.54255319148936</v>
+        <v>3.24675324675325</v>
       </c>
       <c r="AB22">
         <v>15</v>
@@ -3492,23 +3492,23 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z23">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA23">
         <f t="shared" si="1"/>
-        <v>3.62921348314607</v>
+        <v>3.31081081081081</v>
       </c>
       <c r="AB23">
         <v>15</v>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="19350" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="MarryCondition" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>//dontCare</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>numMarriage</t>
+  </si>
+  <si>
+    <t>timeOfYear</t>
   </si>
   <si>
     <t>ageMinM</t>
@@ -1128,36 +1131,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="Y28" sqref="Y28"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="12.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="8.72727272727273" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.72727272727273" customWidth="1"/>
-    <col min="7" max="7" width="6.45454545454545" customWidth="1"/>
-    <col min="8" max="8" width="6.63636363636364" customWidth="1"/>
-    <col min="9" max="11" width="6.90909090909091" customWidth="1"/>
-    <col min="12" max="12" width="6.45454545454545" customWidth="1"/>
-    <col min="13" max="13" width="12.2" customWidth="1"/>
-    <col min="14" max="14" width="6.45454545454545" customWidth="1"/>
-    <col min="15" max="15" width="6.63636363636364" customWidth="1"/>
-    <col min="16" max="18" width="6.90909090909091" customWidth="1"/>
-    <col min="19" max="19" width="6.45454545454545" customWidth="1"/>
-    <col min="20" max="20" width="12.2" customWidth="1"/>
-    <col min="21" max="26" width="9.54545454545454" customWidth="1"/>
-    <col min="27" max="27" width="15.0545454545455" customWidth="1"/>
-    <col min="28" max="33" width="9.54545454545454" customWidth="1"/>
-    <col min="34" max="34" width="15.0545454545455" customWidth="1"/>
+    <col min="3" max="3" width="11.5545454545455" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.72727272727273" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.72727272727273" customWidth="1"/>
+    <col min="8" max="8" width="6.45454545454545" customWidth="1"/>
+    <col min="9" max="9" width="6.63636363636364" customWidth="1"/>
+    <col min="10" max="12" width="6.90909090909091" customWidth="1"/>
+    <col min="13" max="13" width="6.45454545454545" customWidth="1"/>
+    <col min="14" max="14" width="12.2" customWidth="1"/>
+    <col min="15" max="15" width="6.45454545454545" customWidth="1"/>
+    <col min="16" max="16" width="6.63636363636364" customWidth="1"/>
+    <col min="17" max="19" width="6.90909090909091" customWidth="1"/>
+    <col min="20" max="20" width="6.45454545454545" customWidth="1"/>
+    <col min="21" max="21" width="12.2" customWidth="1"/>
+    <col min="22" max="27" width="9.54545454545454" customWidth="1"/>
+    <col min="28" max="28" width="15.0545454545455" customWidth="1"/>
+    <col min="29" max="34" width="9.54545454545454" customWidth="1"/>
+    <col min="35" max="35" width="15.0545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1165,26 +1169,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -1202,10 +1206,10 @@
       <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1223,10 +1227,10 @@
       <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="T2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1244,10 +1248,10 @@
       <c r="Z2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AC2" s="6" t="s">
@@ -1265,115 +1269,121 @@
       <c r="AG2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="AI2" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>35</v>
+      <c r="M3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>35</v>
+      <c r="T3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="6" t="s">
-        <v>35</v>
+      <c r="AA3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="AH3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1381,26 +1391,26 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>1.6</v>
+      </c>
+      <c r="D4">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>38</v>
       </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -1411,14 +1421,14 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <f>(G4*0+H4*1+I4*2+J4*3+K4*4+L4*5)/(G4+H4+I4+J4+K4+L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>(H4*0+I4*1+J4*2+K4*3+L4*4+M4*5)/(H4+I4+J4+K4+L4+M4)</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
       <c r="O4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1433,14 +1443,14 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T18" si="0">(N4*0+O4*1+P4*2+Q4*3+R4*4+S4*5)/(N4+O4+P4+Q4+R4+S4)</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <f t="shared" ref="U4:U18" si="0">(O4*0+P4*1+Q4*2+R4*3+S4*4+T4*5)/(O4+P4+Q4+R4+S4+T4)</f>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1455,14 +1465,14 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA23" si="1">(U4*0+V4*1+W4*2+X4*3+Y4*4+Z4*5)/(U4+V4+W4+X4+Y4+Z4)</f>
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>15</v>
+        <f t="shared" ref="AB4:AB23" si="1">(V4*0+W4*1+X4*2+Y4*3+Z4*4+AA4*5)/(V4+W4+X4+Y4+Z4+AA4)</f>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1477,11 +1487,14 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" ref="AH4:AH23" si="2">(AB4*0+AC4*1+AD4*2+AE4*3+AF4*4+AG4*5)/(AB4+AC4+AD4+AE4+AF4+AG4)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI23" si="2">(AC4*0+AD4*1+AE4*2+AF4*3+AG4*4+AH4*5)/(AC4+AD4+AE4+AF4+AG4+AH4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1489,25 +1502,25 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>1.6</v>
+      </c>
+      <c r="D5">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>49</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>37</v>
       </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1519,18 +1532,18 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M23" si="3">(G5*0+H5*1+I5*2+J5*3+K5*4+L5*5)/(G5+H5+I5+J5+K5+L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N23" si="3">(H5*0+I5*1+J5*2+K5*3+L5*4+M5*5)/(H5+I5+J5+K5+L5+M5)</f>
         <v>0.5</v>
       </c>
-      <c r="N5">
-        <v>15</v>
-      </c>
       <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
         <v>5</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1541,18 +1554,18 @@
         <v>0</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="U5">
-        <v>10</v>
-      </c>
       <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
         <v>2</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
@@ -1563,18 +1576,18 @@
         <v>0</v>
       </c>
       <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="1"/>
         <v>0.166666666666667</v>
       </c>
-      <c r="AB5">
-        <v>15</v>
-      </c>
       <c r="AC5">
+        <v>15</v>
+      </c>
+      <c r="AD5">
         <v>3</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
@@ -1585,11 +1598,14 @@
         <v>0</v>
       </c>
       <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="2"/>
         <v>0.166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1597,29 +1613,29 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>1.6</v>
+      </c>
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>49</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>37</v>
       </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
@@ -1627,17 +1643,17 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="N6">
-        <v>15</v>
-      </c>
       <c r="O6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1649,18 +1665,18 @@
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
       <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
         <v>5</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
@@ -1671,18 +1687,18 @@
         <v>0</v>
       </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="1"/>
         <v>0.333333333333333</v>
       </c>
-      <c r="AB6">
-        <v>15</v>
-      </c>
       <c r="AC6">
+        <v>15</v>
+      </c>
+      <c r="AD6">
         <v>6</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
@@ -1693,11 +1709,14 @@
         <v>0</v>
       </c>
       <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="2"/>
         <v>0.285714285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -1705,28 +1724,28 @@
         <v>3</v>
       </c>
       <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>48</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>36</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
       <c r="H7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1735,17 +1754,17 @@
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>15</v>
-      </c>
       <c r="O7">
         <v>15</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1757,17 +1776,17 @@
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="U7">
-        <v>10</v>
-      </c>
       <c r="V7">
         <v>10</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1779,18 +1798,18 @@
         <v>0</v>
       </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="AB7">
-        <v>15</v>
-      </c>
       <c r="AC7">
+        <v>15</v>
+      </c>
+      <c r="AD7">
         <v>9</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0</v>
       </c>
@@ -1801,11 +1820,14 @@
         <v>0</v>
       </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>1005</v>
       </c>
@@ -1813,51 +1835,51 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>1.55</v>
       </c>
       <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>36</v>
       </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
       <c r="H8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
         <v>5</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
-      <c r="N8">
-        <v>15</v>
-      </c>
       <c r="O8">
         <v>15</v>
       </c>
       <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
         <v>0</v>
       </c>
@@ -1865,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>0.714285714285714</v>
       </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
       <c r="V8">
         <v>10</v>
       </c>
       <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
         <v>0</v>
       </c>
@@ -1887,18 +1909,18 @@
         <v>0</v>
       </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AB8">
-        <v>15</v>
-      </c>
       <c r="AC8">
+        <v>15</v>
+      </c>
+      <c r="AD8">
         <v>12</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
         <v>0</v>
       </c>
@@ -1909,11 +1931,14 @@
         <v>0</v>
       </c>
       <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="2"/>
         <v>0.444444444444444</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>1006</v>
       </c>
@@ -1921,50 +1946,50 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>1.55</v>
       </c>
       <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
         <v>47</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>35</v>
       </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
       <c r="H9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>1.44444444444444</v>
       </c>
-      <c r="N9">
-        <v>15</v>
-      </c>
       <c r="O9">
         <v>15</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1973,20 +1998,20 @@
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
       <c r="V9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1995,17 +2020,17 @@
         <v>0</v>
       </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB9">
-        <v>15</v>
-      </c>
       <c r="AC9">
         <v>15</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2017,11 +2042,14 @@
         <v>0</v>
       </c>
       <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>1007</v>
       </c>
@@ -2029,42 +2057,42 @@
         <v>6</v>
       </c>
       <c r="C10">
+        <v>1.55</v>
+      </c>
+      <c r="D10">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>47</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>35</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5</v>
       </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
       <c r="I10">
         <v>15</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>1.66666666666667</v>
       </c>
-      <c r="N10">
-        <v>15</v>
-      </c>
       <c r="O10">
         <v>15</v>
       </c>
@@ -2072,7 +2100,7 @@
         <v>15</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2081,43 +2109,43 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
       <c r="V10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
         <v>5</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="AB10">
-        <v>15</v>
-      </c>
       <c r="AC10">
         <v>15</v>
       </c>
       <c r="AD10">
+        <v>15</v>
+      </c>
+      <c r="AE10">
         <v>3</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
@@ -2125,11 +2153,14 @@
         <v>0</v>
       </c>
       <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="2"/>
         <v>0.636363636363636</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>1008</v>
       </c>
@@ -2137,42 +2168,42 @@
         <v>7</v>
       </c>
       <c r="C11">
+        <v>1.55</v>
+      </c>
+      <c r="D11">
         <v>21</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>46</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>34</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
       <c r="I11">
         <v>15</v>
       </c>
       <c r="J11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="N11">
-        <v>15</v>
-      </c>
       <c r="O11">
         <v>15</v>
       </c>
@@ -2180,52 +2211,52 @@
         <v>15</v>
       </c>
       <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11">
         <v>5</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
       <c r="V11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X11">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="1"/>
         <v>1.44444444444444</v>
       </c>
-      <c r="AB11">
-        <v>15</v>
-      </c>
       <c r="AC11">
         <v>15</v>
       </c>
       <c r="AD11">
+        <v>15</v>
+      </c>
+      <c r="AE11">
         <v>6</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -2233,11 +2264,14 @@
         <v>0</v>
       </c>
       <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>1009</v>
       </c>
@@ -2245,42 +2279,42 @@
         <v>8</v>
       </c>
       <c r="C12">
+        <v>1.55</v>
+      </c>
+      <c r="D12">
         <v>22</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>34</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5</v>
       </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
       <c r="I12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>2.35714285714286</v>
       </c>
-      <c r="N12">
-        <v>15</v>
-      </c>
       <c r="O12">
         <v>15</v>
       </c>
@@ -2288,52 +2322,52 @@
         <v>15</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>1.36363636363636</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>5</v>
       </c>
-      <c r="V12">
-        <v>15</v>
-      </c>
       <c r="W12">
         <v>15</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="1"/>
         <v>1.66666666666667</v>
       </c>
-      <c r="AB12">
-        <v>15</v>
-      </c>
       <c r="AC12">
         <v>15</v>
       </c>
       <c r="AD12">
+        <v>15</v>
+      </c>
+      <c r="AE12">
         <v>9</v>
       </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
       <c r="AF12">
         <v>0</v>
       </c>
@@ -2341,11 +2375,14 @@
         <v>0</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="2"/>
         <v>0.846153846153846</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>1010</v>
       </c>
@@ -2353,42 +2390,42 @@
         <v>9</v>
       </c>
       <c r="C13">
+        <v>1.55</v>
+      </c>
+      <c r="D13">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>33</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
       <c r="I13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>2.42647058823529</v>
       </c>
-      <c r="N13">
-        <v>15</v>
-      </c>
       <c r="O13">
         <v>15</v>
       </c>
@@ -2399,49 +2436,49 @@
         <v>15</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>5</v>
       </c>
-      <c r="V13">
-        <v>15</v>
-      </c>
       <c r="W13">
         <v>15</v>
       </c>
       <c r="X13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
         <v>5</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="AB13">
-        <v>15</v>
-      </c>
       <c r="AC13">
         <v>15</v>
       </c>
       <c r="AD13">
+        <v>15</v>
+      </c>
+      <c r="AE13">
         <v>12</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
         <v>0</v>
       </c>
@@ -2449,11 +2486,14 @@
         <v>0</v>
       </c>
       <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="2"/>
         <v>0.928571428571429</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>1011</v>
       </c>
@@ -2461,86 +2501,86 @@
         <v>10</v>
       </c>
       <c r="C14">
+        <v>1.5</v>
+      </c>
+      <c r="D14">
         <v>23</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>45</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>33</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
       <c r="I14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
         <v>5</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>2.53968253968254</v>
       </c>
-      <c r="N14">
-        <v>15</v>
-      </c>
       <c r="O14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q14">
         <v>15</v>
       </c>
       <c r="R14">
+        <v>15</v>
+      </c>
+      <c r="S14">
         <v>5</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
       <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>1.64285714285714</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>5</v>
       </c>
-      <c r="V14">
-        <v>15</v>
-      </c>
       <c r="W14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
         <v>5</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f t="shared" si="1"/>
         <v>2.35714285714286</v>
       </c>
-      <c r="AB14">
-        <v>15</v>
-      </c>
       <c r="AC14">
         <v>15</v>
       </c>
@@ -2548,7 +2588,7 @@
         <v>15</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2557,11 +2597,14 @@
         <v>0</v>
       </c>
       <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>1012</v>
       </c>
@@ -2569,44 +2612,44 @@
         <v>12</v>
       </c>
       <c r="C15">
+        <v>1.5</v>
+      </c>
+      <c r="D15">
         <v>23</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>44</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
       <c r="I15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L15">
         <v>10</v>
       </c>
       <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>2.76119402985075</v>
       </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
       <c r="O15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P15">
         <v>20</v>
@@ -2615,40 +2658,40 @@
         <v>20</v>
       </c>
       <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
         <v>5</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3</v>
       </c>
-      <c r="V15">
-        <v>15</v>
-      </c>
       <c r="W15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
         <v>5</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <f t="shared" si="1"/>
         <v>2.42647058823529</v>
       </c>
-      <c r="AB15">
-        <v>15</v>
-      </c>
       <c r="AC15">
         <v>15</v>
       </c>
@@ -2656,20 +2699,23 @@
         <v>15</v>
       </c>
       <c r="AE15">
+        <v>15</v>
+      </c>
+      <c r="AF15">
         <v>3</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>1013</v>
       </c>
@@ -2677,44 +2723,44 @@
         <v>14</v>
       </c>
       <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="D16">
         <v>24</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>44</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>18</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>32</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
       <c r="I16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>20</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="3"/>
         <v>2.85714285714286</v>
       </c>
-      <c r="N16">
-        <v>15</v>
-      </c>
       <c r="O16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -2723,40 +2769,40 @@
         <v>20</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>1.88235294117647</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3</v>
       </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
       <c r="W16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
         <v>5</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <f t="shared" si="1"/>
         <v>2.53968253968254</v>
       </c>
-      <c r="AB16">
-        <v>15</v>
-      </c>
       <c r="AC16">
         <v>15</v>
       </c>
@@ -2764,20 +2810,23 @@
         <v>15</v>
       </c>
       <c r="AE16">
+        <v>15</v>
+      </c>
+      <c r="AF16">
         <v>6</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
         <v>0</v>
       </c>
       <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="2"/>
         <v>1.23529411764706</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>1014</v>
       </c>
@@ -2785,86 +2834,86 @@
         <v>16</v>
       </c>
       <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
         <v>24</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>43</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>18</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>31</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
       <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
         <v>25</v>
       </c>
-      <c r="K17">
-        <v>20</v>
-      </c>
       <c r="L17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="3"/>
         <v>3.19767441860465</v>
       </c>
-      <c r="N17">
-        <v>15</v>
-      </c>
       <c r="O17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P17">
         <v>20</v>
       </c>
       <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
         <v>25</v>
       </c>
-      <c r="R17">
-        <v>10</v>
-      </c>
       <c r="S17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="0"/>
         <v>1.94444444444444</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2</v>
       </c>
-      <c r="V17">
-        <v>10</v>
-      </c>
       <c r="W17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z17">
         <v>10</v>
       </c>
       <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="1"/>
         <v>2.76119402985075</v>
       </c>
-      <c r="AB17">
-        <v>15</v>
-      </c>
       <c r="AC17">
         <v>15</v>
       </c>
@@ -2872,20 +2921,23 @@
         <v>15</v>
       </c>
       <c r="AE17">
+        <v>15</v>
+      </c>
+      <c r="AF17">
         <v>9</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="2"/>
         <v>1.33333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>1015</v>
       </c>
@@ -2893,86 +2945,86 @@
         <v>18</v>
       </c>
       <c r="C18">
+        <v>1.45</v>
+      </c>
+      <c r="D18">
         <v>25</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>43</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>31</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="I18">
-        <v>20</v>
-      </c>
       <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
         <v>25</v>
       </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="3"/>
         <v>3.2967032967033</v>
       </c>
-      <c r="N18">
-        <v>15</v>
-      </c>
       <c r="O18">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P18">
         <v>20</v>
       </c>
       <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
         <v>30</v>
       </c>
-      <c r="R18">
-        <v>10</v>
-      </c>
       <c r="S18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2</v>
       </c>
-      <c r="V18">
-        <v>10</v>
-      </c>
       <c r="W18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X18">
         <v>20</v>
       </c>
       <c r="Y18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="1"/>
         <v>2.85714285714286</v>
       </c>
-      <c r="AB18">
-        <v>15</v>
-      </c>
       <c r="AC18">
         <v>15</v>
       </c>
@@ -2980,20 +3032,23 @@
         <v>15</v>
       </c>
       <c r="AE18">
+        <v>15</v>
+      </c>
+      <c r="AF18">
         <v>12</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
       <c r="AG18">
         <v>0</v>
       </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="2"/>
         <v>1.42105263157895</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>1016</v>
       </c>
@@ -3001,86 +3056,86 @@
         <v>20</v>
       </c>
       <c r="C19">
+        <v>1.45</v>
+      </c>
+      <c r="D19">
         <v>25</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>42</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>30</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="I19">
-        <v>15</v>
-      </c>
       <c r="J19">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K19">
         <v>25</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="3"/>
         <v>3.46067415730337</v>
       </c>
-      <c r="N19">
-        <v>15</v>
-      </c>
       <c r="O19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P19">
         <v>20</v>
       </c>
       <c r="Q19">
+        <v>20</v>
+      </c>
+      <c r="R19">
         <v>30</v>
       </c>
-      <c r="R19">
-        <v>15</v>
-      </c>
       <c r="S19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19:T23" si="4">(N19*0+O19*1+P19*2+Q19*3+R19*4+S19*5)/(N19+O19+P19+Q19+R19+S19)</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U23" si="4">(O19*0+P19*1+Q19*2+R19*3+S19*4+T19*5)/(O19+P19+Q19+R19+S19+T19)</f>
         <v>2.1</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>1</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>5</v>
       </c>
-      <c r="W19">
-        <v>20</v>
-      </c>
       <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
         <v>30</v>
       </c>
-      <c r="Y19">
-        <v>20</v>
-      </c>
       <c r="Z19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA19">
+        <v>10</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="1"/>
         <v>3.08139534883721</v>
       </c>
-      <c r="AB19">
-        <v>15</v>
-      </c>
       <c r="AC19">
         <v>15</v>
       </c>
@@ -3091,17 +3146,20 @@
         <v>15</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>1017</v>
       </c>
@@ -3109,28 +3167,28 @@
         <v>22</v>
       </c>
       <c r="C20">
+        <v>1.45</v>
+      </c>
+      <c r="D20">
         <v>26</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>42</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>18</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>30</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>15</v>
-      </c>
       <c r="J20">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K20">
         <v>25</v>
@@ -3139,77 +3197,80 @@
         <v>25</v>
       </c>
       <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="3"/>
         <v>3.54255319148936</v>
       </c>
-      <c r="N20">
-        <v>15</v>
-      </c>
       <c r="O20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P20">
         <v>20</v>
       </c>
       <c r="Q20">
+        <v>20</v>
+      </c>
+      <c r="R20">
         <v>35</v>
       </c>
-      <c r="R20">
-        <v>15</v>
-      </c>
       <c r="S20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="4"/>
         <v>2.14285714285714</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>4</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>18</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>30</v>
       </c>
-      <c r="Y20">
-        <v>20</v>
-      </c>
       <c r="Z20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="1"/>
         <v>3.13253012048193</v>
       </c>
-      <c r="AB20">
-        <v>15</v>
-      </c>
       <c r="AC20">
         <v>15</v>
       </c>
       <c r="AD20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
         <f t="shared" si="2"/>
         <v>1.53846153846154</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>1018</v>
       </c>
@@ -3217,28 +3278,28 @@
         <v>24</v>
       </c>
       <c r="C21">
+        <v>1.4</v>
+      </c>
+      <c r="D21">
         <v>26</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>41</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>18</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>29</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
       <c r="J21">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>25</v>
@@ -3247,77 +3308,80 @@
         <v>25</v>
       </c>
       <c r="M21">
+        <v>25</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="3"/>
         <v>3.62921348314607</v>
       </c>
-      <c r="N21">
-        <v>15</v>
-      </c>
       <c r="O21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P21">
         <v>20</v>
       </c>
       <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
         <v>35</v>
       </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
       <c r="S21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="4"/>
         <v>2.22727272727273</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>3</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>16</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>30</v>
       </c>
-      <c r="Y21">
-        <v>20</v>
-      </c>
       <c r="Z21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="1"/>
         <v>3.1875</v>
       </c>
-      <c r="AB21">
-        <v>15</v>
-      </c>
       <c r="AC21">
         <v>15</v>
       </c>
       <c r="AD21">
+        <v>15</v>
+      </c>
+      <c r="AE21">
         <v>25</v>
       </c>
-      <c r="AE21">
-        <v>15</v>
-      </c>
       <c r="AF21">
+        <v>15</v>
+      </c>
+      <c r="AG21">
         <v>2</v>
       </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
       <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <f t="shared" si="2"/>
         <v>1.63888888888889</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>1019</v>
       </c>
@@ -3325,107 +3389,110 @@
         <v>26</v>
       </c>
       <c r="C22">
+        <v>1.4</v>
+      </c>
+      <c r="D22">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>41</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>29</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
         <v>25</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>40</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>25</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="3"/>
         <v>3.73529411764706</v>
       </c>
-      <c r="N22">
-        <v>15</v>
-      </c>
       <c r="O22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P22">
         <v>20</v>
       </c>
       <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
         <v>45</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>22</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="4"/>
         <v>2.31967213114754</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>14</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>30</v>
       </c>
-      <c r="Y22">
-        <v>20</v>
-      </c>
       <c r="Z22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA22">
+        <v>10</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="1"/>
         <v>3.24675324675325</v>
       </c>
-      <c r="AB22">
-        <v>15</v>
-      </c>
       <c r="AC22">
         <v>15</v>
       </c>
       <c r="AD22">
+        <v>15</v>
+      </c>
+      <c r="AE22">
         <v>35</v>
       </c>
-      <c r="AE22">
-        <v>15</v>
-      </c>
       <c r="AF22">
+        <v>15</v>
+      </c>
+      <c r="AG22">
         <v>4</v>
       </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
       <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <f t="shared" si="2"/>
         <v>1.73809523809524</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>1020</v>
       </c>
@@ -3433,102 +3500,105 @@
         <v>28</v>
       </c>
       <c r="C23">
+        <v>1.35</v>
+      </c>
+      <c r="D23">
         <v>27</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>40</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>18</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>28</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>40</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>25</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="3"/>
         <v>3.82474226804124</v>
       </c>
-      <c r="N23">
-        <v>15</v>
-      </c>
       <c r="O23">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P23">
         <v>20</v>
       </c>
       <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23">
         <v>55</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>25</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="4"/>
         <v>2.40740740740741</v>
       </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
       <c r="V23">
         <v>1</v>
       </c>
       <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
         <v>12</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>30</v>
       </c>
-      <c r="Y23">
-        <v>20</v>
-      </c>
       <c r="Z23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="1"/>
         <v>3.31081081081081</v>
       </c>
-      <c r="AB23">
-        <v>15</v>
-      </c>
       <c r="AC23">
         <v>15</v>
       </c>
       <c r="AD23">
+        <v>15</v>
+      </c>
+      <c r="AE23">
         <v>45</v>
       </c>
-      <c r="AE23">
-        <v>20</v>
-      </c>
       <c r="AF23">
+        <v>20</v>
+      </c>
+      <c r="AG23">
         <v>5</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
         <f t="shared" si="2"/>
         <v>1.85</v>
       </c>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -1136,7 +1136,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D4">
         <v>18</v>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -1136,7 +1136,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2057,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -2279,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="D12">
         <v>22</v>
@@ -2390,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -2612,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -2723,7 +2723,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="D16">
         <v>24</v>
@@ -2834,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="D17">
         <v>24</v>
@@ -2945,7 +2945,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="D18">
         <v>25</v>
@@ -3056,7 +3056,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="D19">
         <v>25</v>
@@ -3167,7 +3167,7 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="D20">
         <v>26</v>
@@ -3278,7 +3278,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="D21">
         <v>26</v>
@@ -3389,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D22">
         <v>27</v>
@@ -3500,7 +3500,7 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="D23">
         <v>27</v>

--- a/Assets/Excel/MarryCondition.xlsx
+++ b/Assets/Excel/MarryCondition.xlsx
@@ -1136,7 +1136,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -1835,7 +1835,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1946,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -2057,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -2279,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="D12">
         <v>22</v>
@@ -2390,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="D14">
         <v>23</v>
